--- a/regression materials/online returns data.xlsx
+++ b/regression materials/online returns data.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marsharichins/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tn9k4\GitHub\courses_teach\mizzou\mar4050_F21\regression materials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB05FC6A-60A3-3E46-B10E-0F0C7BDE132B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB64254E-39D6-4E07-9651-6EC9C1A37D7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15760" yWindow="460" windowWidth="20320" windowHeight="19080" xr2:uid="{EE347F25-236D-CB44-9006-C403C6A32B22}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EE347F25-236D-CB44-9006-C403C6A32B22}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,20 +35,100 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>Percentage returned</t>
   </si>
   <si>
     <t>Return cost</t>
+  </si>
+  <si>
+    <t>SUMMARY OUTPUT</t>
+  </si>
+  <si>
+    <t>Regression Statistics</t>
+  </si>
+  <si>
+    <t>Multiple R</t>
+  </si>
+  <si>
+    <t>R Square</t>
+  </si>
+  <si>
+    <t>Adjusted R Square</t>
+  </si>
+  <si>
+    <t>Standard Error</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>ANOVA</t>
+  </si>
+  <si>
+    <t>Regression</t>
+  </si>
+  <si>
+    <t>Residual</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Intercept</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Significance F</t>
+  </si>
+  <si>
+    <t>Coefficients</t>
+  </si>
+  <si>
+    <t>t Stat</t>
+  </si>
+  <si>
+    <t>P-value</t>
+  </si>
+  <si>
+    <t>Lower 95%</t>
+  </si>
+  <si>
+    <t>Upper 95%</t>
+  </si>
+  <si>
+    <t>Lower 95.0%</t>
+  </si>
+  <si>
+    <t>Upper 95.0%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -63,7 +144,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -71,12 +152,40 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -583,7 +692,7 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -628,7 +737,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr>
@@ -1634,16 +1743,249 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2267AFA8-A0C1-4325-9D08-9F717CADD6D3}">
+  <dimension ref="A1:I18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q15" sqref="Q15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="4"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.51958591904608487</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.26996952727096468</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.25125079720098942</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2.3863462838069482</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1">
+        <v>82.130656356182186</v>
+      </c>
+      <c r="D12" s="1">
+        <v>82.130656356182186</v>
+      </c>
+      <c r="E12" s="1">
+        <v>14.422427497044485</v>
+      </c>
+      <c r="F12" s="1">
+        <v>4.9886659809354923E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1">
+        <v>39</v>
+      </c>
+      <c r="C13" s="1">
+        <v>222.09129486333003</v>
+      </c>
+      <c r="D13" s="1">
+        <v>5.6946485862392313</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2">
+        <v>40</v>
+      </c>
+      <c r="C14" s="2">
+        <v>304.22195121951222</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="1">
+        <v>8.9554795060324253</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.71152283210843192</v>
+      </c>
+      <c r="D17" s="1">
+        <v>12.586355773707149</v>
+      </c>
+      <c r="E17" s="1">
+        <v>2.5979626841605483E-15</v>
+      </c>
+      <c r="F17" s="1">
+        <v>7.5162887341278601</v>
+      </c>
+      <c r="G17" s="1">
+        <v>10.39467027793699</v>
+      </c>
+      <c r="H17" s="1">
+        <v>7.5162887341278601</v>
+      </c>
+      <c r="I17" s="1">
+        <v>10.39467027793699</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="2">
+        <v>-0.52074523945996476</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0.13712168021274873</v>
+      </c>
+      <c r="D18" s="2">
+        <v>-3.7976871246910893</v>
+      </c>
+      <c r="E18" s="2">
+        <v>4.9886659809355042E-4</v>
+      </c>
+      <c r="F18" s="2">
+        <v>-0.79810001696647581</v>
+      </c>
+      <c r="G18" s="2">
+        <v>-0.24339046195345371</v>
+      </c>
+      <c r="H18" s="2">
+        <v>-0.79810001696647581</v>
+      </c>
+      <c r="I18" s="2">
+        <v>-0.24339046195345371</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAFAA762-F303-304B-B2EA-58CC86BF4FDE}">
   <dimension ref="A1:B42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1651,7 +1993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1659,7 +2001,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -1667,7 +2009,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0</v>
       </c>
@@ -1675,7 +2017,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0</v>
       </c>
@@ -1683,7 +2025,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0</v>
       </c>
@@ -1691,7 +2033,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0</v>
       </c>
@@ -1699,7 +2041,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0</v>
       </c>
@@ -1707,7 +2049,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0</v>
       </c>
@@ -1715,7 +2057,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0</v>
       </c>
@@ -1723,7 +2065,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>3</v>
       </c>
@@ -1731,7 +2073,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>3.25</v>
       </c>
@@ -1739,7 +2081,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>3.5</v>
       </c>
@@ -1747,7 +2089,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>3.5</v>
       </c>
@@ -1755,7 +2097,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>3.75</v>
       </c>
@@ -1763,7 +2105,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>3.9</v>
       </c>
@@ -1771,7 +2113,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>3.99</v>
       </c>
@@ -1779,7 +2121,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>4</v>
       </c>
@@ -1787,7 +2129,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>4.25</v>
       </c>
@@ -1795,7 +2137,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>4.25</v>
       </c>
@@ -1803,7 +2145,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>4.3499999999999996</v>
       </c>
@@ -1811,7 +2153,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>4.5</v>
       </c>
@@ -1819,7 +2161,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>5</v>
       </c>
@@ -1827,7 +2169,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>5.25</v>
       </c>
@@ -1835,7 +2177,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>5.89</v>
       </c>
@@ -1843,7 +2185,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>6</v>
       </c>
@@ -1851,7 +2193,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>6.15</v>
       </c>
@@ -1859,7 +2201,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>6.25</v>
       </c>
@@ -1867,7 +2209,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>6.5</v>
       </c>
@@ -1875,7 +2217,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>6.5</v>
       </c>
@@ -1883,7 +2225,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>6.75</v>
       </c>
@@ -1891,7 +2233,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>6.95</v>
       </c>
@@ -1899,7 +2241,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>6.95</v>
       </c>
@@ -1907,7 +2249,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>7</v>
       </c>
@@ -1915,7 +2257,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>7</v>
       </c>
@@ -1923,7 +2265,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>7.25</v>
       </c>
@@ -1931,7 +2273,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>7.25</v>
       </c>
@@ -1939,7 +2281,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>7.5</v>
       </c>
@@ -1947,7 +2289,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>7.5</v>
       </c>
@@ -1955,7 +2297,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>7.75</v>
       </c>
@@ -1963,7 +2305,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>7.75</v>
       </c>
@@ -1971,7 +2313,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>7.8</v>
       </c>
